--- a/storage/app/plantillasExcel/Plantilla-Catalogo-Cuentas.xlsx
+++ b/storage/app/plantillasExcel/Plantilla-Catalogo-Cuentas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos en Laravel\AnalisisFinanciero\storage\app\plantillasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD6C87C-9E97-43B8-A02D-0A7B90526D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5241AF37-52C5-4212-92C0-334E4DEAC200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC195EA9-5B7A-492D-8C41-CA09EE7F2763}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FC195EA9-5B7A-492D-8C41-CA09EE7F2763}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Codigo de cuenta</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Validacion</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4259B0-F660-4D87-BCDE-C1FAF2EF5F66}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +573,7 @@
     <col min="8" max="8" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,13 +586,16 @@
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -595,12 +604,15 @@
       </c>
       <c r="D2" t="s">
         <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -617,7 +629,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -631,7 +643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -642,7 +654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -660,7 +672,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -680,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
@@ -688,7 +700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" s="6" t="s">
         <v>26</v>
       </c>
@@ -696,7 +708,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F13" s="3" t="s">
         <v>0</v>
       </c>
@@ -709,8 +721,11 @@
       <c r="I13" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>5</v>
       </c>
@@ -720,8 +735,11 @@
       <c r="I14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>17</v>
       </c>
@@ -735,7 +753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>18</v>
       </c>
